--- a/data/trans_orig/P14B23-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B23-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>44634</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30779</v>
+        <v>32422</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58695</v>
+        <v>60666</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04584669946219264</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03161508665623073</v>
+        <v>0.03330270863867977</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06029032083347219</v>
+        <v>0.06231428539955828</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>177</v>
@@ -764,19 +764,19 @@
         <v>186621</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>163828</v>
+        <v>162860</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>214956</v>
+        <v>214089</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1403525779988617</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1232105065066724</v>
+        <v>0.1224826551631982</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1616621823699949</v>
+        <v>0.1610100830332453</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>218</v>
@@ -785,19 +785,19 @@
         <v>231255</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>203576</v>
+        <v>202168</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>263823</v>
+        <v>260684</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1004057792137912</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08838815292875389</v>
+        <v>0.08777671947759788</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1145460301291167</v>
+        <v>0.113183100038369</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>928911</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>914850</v>
+        <v>912879</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>942766</v>
+        <v>941123</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9541533005378073</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9397096791665278</v>
+        <v>0.9376857146004417</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9683849133437693</v>
+        <v>0.9666972913613202</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1063</v>
@@ -835,19 +835,19 @@
         <v>1143040</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1114705</v>
+        <v>1115572</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1165833</v>
+        <v>1166801</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8596474220011383</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8383378176300051</v>
+        <v>0.8389899169667544</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8767894934933272</v>
+        <v>0.8775173448368018</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1929</v>
@@ -856,19 +856,19 @@
         <v>2071950</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2039382</v>
+        <v>2042521</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2099629</v>
+        <v>2101037</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8995942207862088</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8854539698708833</v>
+        <v>0.8868168999616312</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.911611847071246</v>
+        <v>0.9122232805224022</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>37635</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26006</v>
+        <v>26997</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52622</v>
+        <v>54277</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01917323269841708</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01324855537931345</v>
+        <v>0.01375363332324062</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02680839528942206</v>
+        <v>0.02765148676692648</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>83</v>
@@ -981,19 +981,19 @@
         <v>88728</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>73168</v>
+        <v>70757</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>111547</v>
+        <v>108049</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05056929427269999</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04170083668327395</v>
+        <v>0.04032692665985374</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06357422858245584</v>
+        <v>0.06158089119287453</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>117</v>
@@ -1002,19 +1002,19 @@
         <v>126364</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>105345</v>
+        <v>104771</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>150130</v>
+        <v>152461</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03399160430297637</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02833753138442074</v>
+        <v>0.02818309776781067</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04038470981287724</v>
+        <v>0.04101169857921788</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>1925272</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1910285</v>
+        <v>1908630</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1936901</v>
+        <v>1935910</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9808267673015829</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.973191604710578</v>
+        <v>0.9723485132330736</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9867514446206865</v>
+        <v>0.9862463666767594</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1550</v>
@@ -1052,19 +1052,19 @@
         <v>1665864</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1643045</v>
+        <v>1646543</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1681424</v>
+        <v>1683835</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9494307057273</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9364257714175435</v>
+        <v>0.9384191088071253</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9582991633167258</v>
+        <v>0.9596730733401461</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3371</v>
@@ -1073,19 +1073,19 @@
         <v>3591135</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3567369</v>
+        <v>3565038</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3612154</v>
+        <v>3612728</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9660083956970237</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9596152901871228</v>
+        <v>0.9589883014207822</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9716624686155793</v>
+        <v>0.9718169022321899</v>
       </c>
     </row>
     <row r="9">
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11599</v>
+        <v>11020</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006003429090971813</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02410545574133073</v>
+        <v>0.02290196424128436</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1198,19 +1198,19 @@
         <v>8536</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3523</v>
+        <v>3805</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17493</v>
+        <v>17211</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01861114864495196</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007681673296985986</v>
+        <v>0.008296521788414528</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03814252445156788</v>
+        <v>0.03752712223442051</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1219,19 +1219,19 @@
         <v>11424</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5247</v>
+        <v>5437</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21111</v>
+        <v>23058</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01215603078114688</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005582555279072286</v>
+        <v>0.005785581386272835</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02246288022310574</v>
+        <v>0.02453491126873449</v>
       </c>
     </row>
     <row r="11">
@@ -1248,7 +1248,7 @@
         <v>478292</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>469582</v>
+        <v>470161</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>481181</v>
@@ -1257,7 +1257,7 @@
         <v>0.9939965709090282</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9758945442586693</v>
+        <v>0.9770980357587153</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1269,19 +1269,19 @@
         <v>450095</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>441138</v>
+        <v>441420</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>455108</v>
+        <v>454826</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9813888513550481</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9618574755484319</v>
+        <v>0.9624728777655794</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.992318326703014</v>
+        <v>0.9917034782115852</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>841</v>
@@ -1290,19 +1290,19 @@
         <v>928389</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>918702</v>
+        <v>916755</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>934566</v>
+        <v>934376</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9878439692188531</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9775371197768943</v>
+        <v>0.9754650887312647</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9944174447209276</v>
+        <v>0.9942144186137271</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>85158</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>69120</v>
+        <v>67388</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>110320</v>
+        <v>105990</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02491719183575539</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02022447788157944</v>
+        <v>0.01971785904255263</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03227960790761397</v>
+        <v>0.03101281770771846</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>267</v>
@@ -1415,19 +1415,19 @@
         <v>283885</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>251694</v>
+        <v>253863</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>318196</v>
+        <v>314327</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08012835404114046</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0710422001604791</v>
+        <v>0.07165427662262328</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08981257719831046</v>
+        <v>0.08872073101423875</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>344</v>
@@ -1436,19 +1436,19 @@
         <v>369043</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>329487</v>
+        <v>330893</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>409476</v>
+        <v>409996</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0530195221595094</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04733658546645465</v>
+        <v>0.04753855570148039</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05882834386042295</v>
+        <v>0.05890311576555371</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>3332475</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3307313</v>
+        <v>3311643</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3348513</v>
+        <v>3350245</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9750828081642446</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9677203920923855</v>
+        <v>0.9689871822922814</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9797755221184206</v>
+        <v>0.9802821409574474</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3018</v>
@@ -1486,19 +1486,19 @@
         <v>3258999</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3224688</v>
+        <v>3228557</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3291190</v>
+        <v>3289021</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9198716459588595</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9101874228016895</v>
+        <v>0.9112792689857612</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9289577998395208</v>
+        <v>0.9283457233773766</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6141</v>
@@ -1507,19 +1507,19 @@
         <v>6591474</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6551041</v>
+        <v>6550521</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6631030</v>
+        <v>6629624</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9469804778404906</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9411716561395771</v>
+        <v>0.9410968842344465</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9526634145335453</v>
+        <v>0.9524614442985198</v>
       </c>
     </row>
     <row r="15">
@@ -1850,19 +1850,19 @@
         <v>25621</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17197</v>
+        <v>16700</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37251</v>
+        <v>37254</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.033964842528067</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02279712315453897</v>
+        <v>0.02213802620059235</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04938188707781318</v>
+        <v>0.04938574757346844</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>117</v>
@@ -1871,19 +1871,19 @@
         <v>130122</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>108853</v>
+        <v>109679</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>152242</v>
+        <v>152863</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1308205056464277</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1094370019167442</v>
+        <v>0.1102674094803075</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1530595426516001</v>
+        <v>0.1536835566390159</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>144</v>
@@ -1892,19 +1892,19 @@
         <v>155743</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>133117</v>
+        <v>132477</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>182906</v>
+        <v>181000</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08904665371194351</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07610998628521091</v>
+        <v>0.07574413897250512</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1045772913793077</v>
+        <v>0.1034875489015778</v>
       </c>
     </row>
     <row r="5">
@@ -1921,19 +1921,19 @@
         <v>728726</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>717096</v>
+        <v>717093</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>737150</v>
+        <v>737647</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.966035157471933</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9506181129221871</v>
+        <v>0.9506142524265316</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9772028768454613</v>
+        <v>0.9778619737994076</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>775</v>
@@ -1942,19 +1942,19 @@
         <v>864538</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>842418</v>
+        <v>841797</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>885807</v>
+        <v>884981</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8691794943535722</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8469404573484</v>
+        <v>0.8463164433609839</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8905629980832558</v>
+        <v>0.8897325905196923</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1510</v>
@@ -1963,19 +1963,19 @@
         <v>1593264</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1566101</v>
+        <v>1568007</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1615890</v>
+        <v>1616530</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9109533462880565</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8954227086206931</v>
+        <v>0.8965124510984221</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9238900137147892</v>
+        <v>0.9242558610274948</v>
       </c>
     </row>
     <row r="6">
@@ -2067,19 +2067,19 @@
         <v>38382</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26912</v>
+        <v>27297</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53235</v>
+        <v>51777</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01848484801050363</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01296116370650027</v>
+        <v>0.01314652566401263</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02563853462362299</v>
+        <v>0.0249359108166456</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>90</v>
@@ -2088,19 +2088,19 @@
         <v>99014</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>81480</v>
+        <v>79404</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>122374</v>
+        <v>122452</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04979836717957963</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04097996797840884</v>
+        <v>0.03993542547036599</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06154709645411466</v>
+        <v>0.0615864630487556</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>126</v>
@@ -2109,19 +2109,19 @@
         <v>137396</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>114453</v>
+        <v>116457</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>162615</v>
+        <v>163106</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03380231338089152</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02815793002691882</v>
+        <v>0.0286508814640215</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0400069116864779</v>
+        <v>0.04012755050116671</v>
       </c>
     </row>
     <row r="8">
@@ -2138,19 +2138,19 @@
         <v>2038003</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2023150</v>
+        <v>2024608</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2049473</v>
+        <v>2049088</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9815151519894963</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9743614653763771</v>
+        <v>0.9750640891833543</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9870388362934998</v>
+        <v>0.9868534743359874</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1818</v>
@@ -2159,19 +2159,19 @@
         <v>1889286</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1865926</v>
+        <v>1865848</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1906820</v>
+        <v>1908896</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9502016328204204</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9384529035458853</v>
+        <v>0.9384135369512443</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9590200320215911</v>
+        <v>0.960064574529634</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3734</v>
@@ -2180,19 +2180,19 @@
         <v>3927289</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3902070</v>
+        <v>3901579</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3950232</v>
+        <v>3948228</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9661976866191084</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9599930883135221</v>
+        <v>0.9598724494988331</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9718420699730812</v>
+        <v>0.9713491185359784</v>
       </c>
     </row>
     <row r="9">
@@ -2287,16 +2287,16 @@
         <v>890</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7892</v>
+        <v>8666</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005281023425639102</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001626515930363521</v>
+        <v>0.001626723149062489</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01443135214366577</v>
+        <v>0.01584612010528667</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -2305,19 +2305,19 @@
         <v>8781</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3888</v>
+        <v>3861</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16296</v>
+        <v>16957</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01598968855059978</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007080105765425748</v>
+        <v>0.007030401451376839</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0296763340336076</v>
+        <v>0.0308800380327739</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -2326,19 +2326,19 @@
         <v>11669</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6040</v>
+        <v>6045</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20002</v>
+        <v>20973</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01064636797697855</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005510993228934891</v>
+        <v>0.005515153369524861</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0182499978780566</v>
+        <v>0.0191350859817486</v>
       </c>
     </row>
     <row r="11">
@@ -2355,7 +2355,7 @@
         <v>543998</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>538994</v>
+        <v>538220</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>545996</v>
@@ -2364,10 +2364,10 @@
         <v>0.9947189765743609</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9855686478563348</v>
+        <v>0.9841538798947136</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9983734840696366</v>
+        <v>0.9983732768509375</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>518</v>
@@ -2376,19 +2376,19 @@
         <v>540359</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>532844</v>
+        <v>532183</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>545252</v>
+        <v>545279</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9840103114494002</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9703236659663924</v>
+        <v>0.9691199619672261</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9929198942345742</v>
+        <v>0.9929695985486232</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1016</v>
@@ -2397,19 +2397,19 @@
         <v>1084358</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1076025</v>
+        <v>1075054</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1089987</v>
+        <v>1089982</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9893536320230214</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9817500021219435</v>
+        <v>0.9808649140182515</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9944890067710651</v>
+        <v>0.9944848466304752</v>
       </c>
     </row>
     <row r="12">
@@ -2501,19 +2501,19 @@
         <v>66891</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>52274</v>
+        <v>51749</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>83815</v>
+        <v>84627</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01980420807138506</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01547668740721391</v>
+        <v>0.01532115908456248</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02481475376330234</v>
+        <v>0.0250551161168326</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>215</v>
@@ -2522,19 +2522,19 @@
         <v>237917</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>206961</v>
+        <v>205541</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>266994</v>
+        <v>270728</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06735839514493655</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05859435990269903</v>
+        <v>0.05819237967683093</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07559059016230198</v>
+        <v>0.07664779785030593</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>281</v>
@@ -2543,19 +2543,19 @@
         <v>304808</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>269680</v>
+        <v>268789</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>340425</v>
+        <v>339858</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04411289320427091</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03902910631580808</v>
+        <v>0.03890017785626779</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04926757588879049</v>
+        <v>0.04918554022684404</v>
       </c>
     </row>
     <row r="14">
@@ -2572,19 +2572,19 @@
         <v>3310727</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3293803</v>
+        <v>3292991</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3325344</v>
+        <v>3325869</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9801957919286149</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9751852462366978</v>
+        <v>0.9749448838831674</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9845233125927861</v>
+        <v>0.9846788409154376</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3111</v>
@@ -2593,19 +2593,19 @@
         <v>3294183</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3265106</v>
+        <v>3261372</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3325139</v>
+        <v>3326559</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9326416048550634</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.924409409837698</v>
+        <v>0.9233522021496945</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9414056400973029</v>
+        <v>0.9418076203231691</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6260</v>
@@ -2614,19 +2614,19 @@
         <v>6604910</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6569293</v>
+        <v>6569860</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6640038</v>
+        <v>6640929</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9558871067957291</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9507324241112095</v>
+        <v>0.9508144597731559</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9609708936841919</v>
+        <v>0.9610998221437322</v>
       </c>
     </row>
     <row r="15">
@@ -2957,19 +2957,19 @@
         <v>42407</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32515</v>
+        <v>31937</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56028</v>
+        <v>56148</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07330212989087116</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05620207107012753</v>
+        <v>0.05520346055451672</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.096845106740533</v>
+        <v>0.09705305590473831</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>187</v>
@@ -2978,19 +2978,19 @@
         <v>110466</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>96018</v>
+        <v>96693</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>126961</v>
+        <v>126355</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1343804171208953</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1168052180369865</v>
+        <v>0.1176262035319333</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1544464829028392</v>
+        <v>0.1537094137567043</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>237</v>
@@ -2999,19 +2999,19 @@
         <v>152873</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>134145</v>
+        <v>135451</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>175554</v>
+        <v>173879</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1091509359971256</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09577892806998412</v>
+        <v>0.09671185110573065</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.125345142190541</v>
+        <v>0.1241488607890835</v>
       </c>
     </row>
     <row r="5">
@@ -3028,19 +3028,19 @@
         <v>536122</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>522501</v>
+        <v>522381</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>546014</v>
+        <v>546592</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9266978701091291</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9031548932594671</v>
+        <v>0.902946944095262</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.943797928929873</v>
+        <v>0.9447965394454833</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1240</v>
@@ -3049,19 +3049,19 @@
         <v>711572</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>695077</v>
+        <v>695683</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>726020</v>
+        <v>725345</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8656195828791047</v>
+        <v>0.8656195828791046</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8455535170971608</v>
+        <v>0.8462905862432957</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8831947819630134</v>
+        <v>0.8823737964680669</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1881</v>
@@ -3070,19 +3070,19 @@
         <v>1247694</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1225013</v>
+        <v>1226688</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1266422</v>
+        <v>1265116</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8908490640028746</v>
+        <v>0.8908490640028743</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8746548578094588</v>
+        <v>0.8758511392109164</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9042210719300158</v>
+        <v>0.903288148894269</v>
       </c>
     </row>
     <row r="6">
@@ -3174,19 +3174,19 @@
         <v>70354</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>54854</v>
+        <v>55497</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>91008</v>
+        <v>88662</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03154071443634088</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02459176868291569</v>
+        <v>0.02488040333018707</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04080044506295724</v>
+        <v>0.03974852911136416</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>222</v>
@@ -3195,19 +3195,19 @@
         <v>157492</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>136308</v>
+        <v>138052</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>178903</v>
+        <v>180836</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.07253041389536787</v>
+        <v>0.07253041389536785</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06277438211858351</v>
+        <v>0.06357744098356545</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08239094981067126</v>
+        <v>0.08328118236992098</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>290</v>
@@ -3216,19 +3216,19 @@
         <v>227846</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>201568</v>
+        <v>201466</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>256701</v>
+        <v>255086</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05176005798103569</v>
+        <v>0.0517600579810357</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04579048964246046</v>
+        <v>0.04576743880147922</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05831509481349063</v>
+        <v>0.057948311642059</v>
       </c>
     </row>
     <row r="8">
@@ -3245,19 +3245,19 @@
         <v>2160212</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2139558</v>
+        <v>2141904</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2175712</v>
+        <v>2175069</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9684592855636592</v>
+        <v>0.9684592855636595</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9591995549370428</v>
+        <v>0.9602514708886359</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9754082313170845</v>
+        <v>0.975119596669813</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2699</v>
@@ -3266,19 +3266,19 @@
         <v>2013900</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1992489</v>
+        <v>1990556</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2035084</v>
+        <v>2033340</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9274695861046321</v>
+        <v>0.9274695861046319</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9176090501893287</v>
+        <v>0.9167188176300795</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9372256178814168</v>
+        <v>0.9364225590164347</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4623</v>
@@ -3287,19 +3287,19 @@
         <v>4174113</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4145258</v>
+        <v>4146873</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4200391</v>
+        <v>4200493</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9482399420189642</v>
+        <v>0.9482399420189643</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9416849051865093</v>
+        <v>0.9420516883579405</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9542095103575392</v>
+        <v>0.9542325611985207</v>
       </c>
     </row>
     <row r="9">
@@ -3391,19 +3391,19 @@
         <v>22457</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13900</v>
+        <v>14047</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36235</v>
+        <v>35389</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.03155869168798971</v>
+        <v>0.0315586916879897</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01953399417339693</v>
+        <v>0.01974051292076773</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05092143403546543</v>
+        <v>0.04973271660696928</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -3412,19 +3412,19 @@
         <v>30704</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21785</v>
+        <v>23201</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41735</v>
+        <v>43005</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04178085417592562</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02964480722720221</v>
+        <v>0.03157154431331943</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05679233634917086</v>
+        <v>0.05851957176408898</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>61</v>
@@ -3433,19 +3433,19 @@
         <v>53161</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>38553</v>
+        <v>40139</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>67488</v>
+        <v>68519</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.03675206902315068</v>
+        <v>0.03675206902315067</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02665309922842029</v>
+        <v>0.02774969366935434</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04665724732191953</v>
+        <v>0.04737011596213597</v>
       </c>
     </row>
     <row r="11">
@@ -3462,19 +3462,19 @@
         <v>689130</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>675352</v>
+        <v>676198</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>697687</v>
+        <v>697540</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9684413083120103</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9490785659645343</v>
+        <v>0.9502672833930307</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.980466005826603</v>
+        <v>0.9802594870792325</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>962</v>
@@ -3483,19 +3483,19 @@
         <v>704173</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>693142</v>
+        <v>691872</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>713092</v>
+        <v>711676</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9582191458240742</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.943207663650829</v>
+        <v>0.9414804282359109</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9703551927727978</v>
+        <v>0.9684284556866805</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1624</v>
@@ -3504,19 +3504,19 @@
         <v>1393303</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1378976</v>
+        <v>1377945</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1407911</v>
+        <v>1406325</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9632479309768495</v>
+        <v>0.9632479309768492</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9533427526780804</v>
+        <v>0.9526298840378641</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9733469007715796</v>
+        <v>0.9722503063306455</v>
       </c>
     </row>
     <row r="12">
@@ -3608,19 +3608,19 @@
         <v>135218</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>111300</v>
+        <v>114454</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>162285</v>
+        <v>162170</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03840671205191359</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0316133096550533</v>
+        <v>0.0325091061923319</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04609488537993577</v>
+        <v>0.04606212871780126</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>451</v>
@@ -3629,19 +3629,19 @@
         <v>298662</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>269599</v>
+        <v>271613</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>328304</v>
+        <v>330622</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08010647710725913</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07231136458352169</v>
+        <v>0.07285146289016049</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08805710814909432</v>
+        <v>0.08867883086560448</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>588</v>
@@ -3650,19 +3650,19 @@
         <v>433879</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>400693</v>
+        <v>398582</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>474385</v>
+        <v>473677</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.0598537737697565</v>
+        <v>0.05985377376975652</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0552756371279558</v>
+        <v>0.05498443978162167</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06544148533004157</v>
+        <v>0.06534386901593374</v>
       </c>
     </row>
     <row r="14">
@@ -3679,19 +3679,19 @@
         <v>3385465</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3358398</v>
+        <v>3358513</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3409383</v>
+        <v>3406229</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9615932879480863</v>
+        <v>0.9615932879480864</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.953905114620064</v>
+        <v>0.953937871282199</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9683866903449465</v>
+        <v>0.9674908938076683</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4901</v>
@@ -3700,19 +3700,19 @@
         <v>3429645</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3400003</v>
+        <v>3397685</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3458708</v>
+        <v>3456694</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9198935228927408</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9119428918509065</v>
+        <v>0.9113211691343955</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9276886354164788</v>
+        <v>0.9271485371098395</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8128</v>
@@ -3721,19 +3721,19 @@
         <v>6815111</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6774605</v>
+        <v>6775313</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6848297</v>
+        <v>6850408</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9401462262302435</v>
+        <v>0.9401462262302437</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9345585146699583</v>
+        <v>0.9346561309840663</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9447243628720443</v>
+        <v>0.9450155602183784</v>
       </c>
     </row>
     <row r="15">
